--- a/Hostel_applicant_details.xlsx
+++ b/Hostel_applicant_details.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="516" windowWidth="15996" windowHeight="7356"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="First Sheet" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="First Sheet"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -94,11 +94,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,17 +125,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -145,10 +152,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -186,71 +193,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -274,54 +281,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -331,7 +337,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -340,7 +346,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -349,7 +355,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -357,10 +363,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -389,7 +395,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -402,13 +408,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -427,88 +432,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Hostel_applicant_details.xlsx
+++ b/Hostel_applicant_details.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -89,6 +89,45 @@
   </si>
   <si>
     <t>total_fees</t>
+  </si>
+  <si>
+    <t>jeswin</t>
+  </si>
+  <si>
+    <t>undergraduate</t>
+  </si>
+  <si>
+    <t>22mcaa40</t>
+  </si>
+  <si>
+    <t>13/9/2024</t>
+  </si>
+  <si>
+    <t>jes@gmail.com</t>
+  </si>
+  <si>
+    <t>addff</t>
+  </si>
+  <si>
+    <t>dsfsf</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dvvdvdv</t>
+  </si>
+  <si>
+    <t>fdegde</t>
+  </si>
+  <si>
+    <t>cfs</t>
+  </si>
+  <si>
+    <t>st johns</t>
+  </si>
+  <si>
+    <t>joyal</t>
   </si>
 </sst>
 </file>
@@ -125,9 +164,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -145,6 +193,42 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Y2" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:Y2"/>
+  <tableColumns count="25">
+    <tableColumn name="Column1" id="1" totalsRowLabel="Total"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+    <tableColumn name="Column5" id="5"/>
+    <tableColumn name="Column6" id="6"/>
+    <tableColumn name="joining_date" id="7"/>
+    <tableColumn name="Column8" id="8"/>
+    <tableColumn name="Column9" id="9"/>
+    <tableColumn name="Column10" id="10"/>
+    <tableColumn name="Column11" id="11"/>
+    <tableColumn name="Column12" id="12"/>
+    <tableColumn name="Column13" id="13"/>
+    <tableColumn name="Column14" id="14"/>
+    <tableColumn name="Column15" id="15"/>
+    <tableColumn name="Column16" id="16"/>
+    <tableColumn name="Column17" id="17"/>
+    <tableColumn name="Column18" id="18"/>
+    <tableColumn name="Column19" id="19"/>
+    <tableColumn name="Column20" id="20"/>
+    <tableColumn name="Column21" id="21"/>
+    <tableColumn name="Column22" id="22"/>
+    <tableColumn name="Column23" id="23"/>
+    <tableColumn name="Column24" id="24"/>
+    <tableColumn name="Column25" id="25" totalsRowFunction="custom">
+      <totalsRowFormula>Sum</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,37 +519,37 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -545,7 +629,87 @@
         <v>24</v>
       </c>
     </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2">
+        <v>102</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44903</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2">
+        <v>9746796443</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2">
+        <v>8796565</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="2">
+        <v>7</v>
+      </c>
+      <c r="U2" s="2">
+        <v>2</v>
+      </c>
+      <c r="V2" s="2">
+        <v>8000</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>45000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>